--- a/documentation/spreedsheets/ocp-dns-registries.xlsx
+++ b/documentation/spreedsheets/ocp-dns-registries.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t xml:space="preserve">A.&lt;cluster-name&gt;.&lt;base-domain&gt;</t>
   </si>
@@ -64,67 +64,151 @@
     <t xml:space="preserve">target</t>
   </si>
   <si>
+    <t xml:space="preserve">ELB Masters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lb.ocp1.example.com.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.0.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_etcd-server-ssl._tcp.ocp1.example.com.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etcd-0.ocp1.example.com.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELB InfraNodes </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">lb.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">infra.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ocp1.example.com.br</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etcd-1.ocp1.example.com.br</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kubernetes API</t>
   </si>
   <si>
-    <t xml:space="preserve">api.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_etcd-server-ssl._tcp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">etcd-0.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">api-int.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">etcd-1.</t>
+    <t xml:space="preserve">api.ocp1.example.com.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIP (Nginx) ELB Masters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api-int.ocp1.example.com.br</t>
   </si>
   <si>
     <t xml:space="preserve">Routes</t>
   </si>
   <si>
-    <t xml:space="preserve">*.apps.</t>
+    <t xml:space="preserve">*.apps.ocp1.example.com.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIP (Nginx) ELB Infra Nodes </t>
   </si>
   <si>
     <t xml:space="preserve">ETCD</t>
   </si>
   <si>
-    <t xml:space="preserve">etcd-2.</t>
+    <t xml:space="preserve">cname master-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cname master-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etcd-2.ocp1.example.com.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cname master-2</t>
   </si>
   <si>
     <t xml:space="preserve">Control Planes(Masters)</t>
   </si>
   <si>
-    <t xml:space="preserve">master-0.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">master-1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">master-2.</t>
+    <t xml:space="preserve">master-0.ocp1.example.com.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.0.100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">master-1.ocp1.example.com.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.0.101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">master-2.ocp1.example.com.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.0.102</t>
   </si>
   <si>
     <t xml:space="preserve">Infra Nodes - (Wokers)</t>
   </si>
   <si>
-    <t xml:space="preserve">worker-0.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">worker-1.</t>
+    <t xml:space="preserve">worker-0.ocp1.example.com.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.0.103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worker-1.ocp1.example.com.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.0.104</t>
   </si>
   <si>
     <t xml:space="preserve">Apps Nodes (Workes)</t>
   </si>
   <si>
-    <t xml:space="preserve">worker-2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">worker-3.</t>
+    <t xml:space="preserve">worker-2.ocp1.example.com.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.0.105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worker-3.ocp1.example.com.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.0.106</t>
   </si>
 </sst>
 </file>
@@ -134,7 +218,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -180,6 +264,36 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -193,35 +307,13 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF24292E"/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,13 +335,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFB6D7A8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFA6"/>
+        <bgColor rgb="FFFFE599"/>
       </patternFill>
     </fill>
     <fill>
@@ -266,7 +358,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB6D7A8"/>
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF7D1D5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7D1D5"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFD095"/>
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
@@ -279,7 +383,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE599"/>
-        <bgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFFFFFA6"/>
       </patternFill>
     </fill>
     <fill>
@@ -292,6 +396,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD5A6BD"/>
         <bgColor rgb="FFB4A7D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF819E"/>
+        <bgColor rgb="FFD5A6BD"/>
       </patternFill>
     </fill>
   </fills>
@@ -336,7 +446,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -362,90 +472,102 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -479,7 +601,7 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFF6F8FA"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFF7D1D5"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -494,20 +616,20 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFB6D7A8"/>
       <rgbColor rgb="FFFFE599"/>
+      <rgbColor rgb="FFFFFFA6"/>
       <rgbColor rgb="FF9FC5E8"/>
       <rgbColor rgb="FFD5A6BD"/>
       <rgbColor rgb="FFB4A7D6"/>
       <rgbColor rgb="FFF4CCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FFBF819E"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -526,19 +648,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="3.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="45.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.7"/>
@@ -612,16 +734,18 @@
       <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="10" t="n">
         <v>86400</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>9</v>
@@ -636,24 +760,28 @@
         <v>2380</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6"/>
+      <c r="A4" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="B4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="D4" s="9"/>
       <c r="E4" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="10" t="n">
         <v>86400</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>9</v>
@@ -668,26 +796,28 @@
         <v>2380</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="D5" s="9"/>
       <c r="E5" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="10" t="n">
         <v>86400</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>9</v>
@@ -702,184 +832,229 @@
         <v>2380</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="17"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="17"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>30</v>
+      </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="17"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
-        <v>25</v>
-      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="19"/>
       <c r="B9" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19"/>
       <c r="B10" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="21"/>
+        <v>34</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>35</v>
+      </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="21"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>38</v>
+      </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="22"/>
       <c r="B12" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="24"/>
+        <v>39</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>40</v>
+      </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="22"/>
       <c r="B13" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="24"/>
+        <v>41</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>42</v>
+      </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="25" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="27"/>
+        <v>44</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="25"/>
       <c r="B15" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="27"/>
+        <v>46</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>47</v>
+      </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-    </row>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="28"/>
+      <c r="B17" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
